--- a/Основянский_territories.xlsx
+++ b/Основянский_territories.xlsx
@@ -458,7 +458,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,17 +568,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Основянский_territories.xlsx
+++ b/Основянский_territories.xlsx
@@ -458,7 +458,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -582,17 +582,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Основянский_territories.xlsx
+++ b/Основянский_territories.xlsx
@@ -198,7 +198,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -236,6 +242,10 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -498,17 +508,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>24345873</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -526,17 +536,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>24344974</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
